--- a/Ігрова фізика/Лабораторна робота 3/Апроксимація.xlsx
+++ b/Ігрова фізика/Лабораторна робота 3/Апроксимація.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dima\Desktop\3-sem\Ігрова фізика\Лабораторна робота 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9FF991-32DB-4EE0-9E6B-69D4BFAEA08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAB69EF-822E-41E5-B469-EB8719948429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38880" yWindow="1755" windowWidth="15870" windowHeight="11385" xr2:uid="{B6E290AE-7AEF-4ABA-95AD-0FC03B182096}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B6E290AE-7AEF-4ABA-95AD-0FC03B182096}"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -100,37 +100,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="uk-UA"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -228,10 +198,10 @@
                   <c:v>0.87987099999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.182087</c:v>
+                  <c:v>1.82087</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.43362499999999998</c:v>
+                  <c:v>4.3362499999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -262,7 +232,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -294,6 +263,76 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>β, 1/c</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>^</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:endParaRPr lang="uk-UA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="uk-UA"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -356,6 +395,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>M, Н·м</a:t>
+                </a:r>
+                <a:endParaRPr lang="uk-UA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="uk-UA"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -456,37 +553,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="uk-UA"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -663,6 +730,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>β, 1/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>c^2</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="uk-UA"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -725,6 +851,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>M, Н·м</a:t>
+                </a:r>
+                <a:endParaRPr lang="uk-UA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="uk-UA"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -825,37 +1009,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="uk-UA"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1032,6 +1186,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>β, 1/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>c^2</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="uk-UA"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1094,375 +1307,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="95014512"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="uk-UA"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="uk-UA"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="uk-UA"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+        <c:title>
           <c:tx>
-            <c:strRef>
-              <c:f>Аркуш1!$B$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>М</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>M, Н·м</a:t>
+                </a:r>
+                <a:endParaRPr lang="uk-UA"/>
+              </a:p>
+            </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="uk-UA"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Аркуш1!$A$32:$A$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3.45201</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.5709200000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.64109</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Аркуш1!$B$32:$B$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.20181E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7057800000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.1899200000000003E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4870-4C85-8B7D-F9B5AFDDCC39}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="95014512"/>
-        <c:axId val="95015760"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="95014512"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="95015760"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="95015760"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="uk-UA"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1669,46 +1571,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2742,522 +2604,6 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3862,42 +3208,6 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Діаграма 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D3B0020-5733-5E8F-4812-BB5B535BC049}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Діаграма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
@@ -3913,7 +3223,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4221,8 +3531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9288DFB-5EAD-4AF1-99F7-DB4ABBA5EF64}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4245,7 +3555,7 @@
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.182087</v>
+        <v>1.82087</v>
       </c>
       <c r="B3">
         <v>1.7196300000000001E-2</v>
@@ -4253,7 +3563,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.43362499999999998</v>
+        <v>4.3362499999999997</v>
       </c>
       <c r="B4">
         <v>3.2410700000000001E-2</v>
